--- a/xlsx/阿维森纳_intext.xlsx
+++ b/xlsx/阿维森纳_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="714">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="710">
   <si>
     <t>阿维森纳</t>
   </si>
@@ -29,13 +29,13 @@
     <t>布哈拉</t>
   </si>
   <si>
-    <t>政策_政策_政治學_阿维森纳</t>
+    <t>政策_政策_政治学_阿维森纳</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%96%A9%E6%9B%BC%E7%8E%8B%E6%9C%9D</t>
   </si>
   <si>
-    <t>薩曼王朝</t>
+    <t>萨曼王朝</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B9%8C%E5%85%B9%E5%88%AB%E5%85%8B%E6%96%AF%E5%9D%A6</t>
@@ -71,13 +71,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BA%AB%E5%B0%BC%E4%BA%9E%E7%83%8F%E7%88%BE%E6%A0%B9%E5%A5%87</t>
   </si>
   <si>
-    <t>庫尼亞烏爾根奇</t>
+    <t>库尼亚乌尔根奇</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%BD%8A%E4%BA%9E%E7%88%BE%E7%8E%8B%E6%9C%9D</t>
   </si>
   <si>
-    <t>齊亞爾王朝</t>
+    <t>齐亚尔王朝</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%88%88%E5%B0%94%E7%94%98</t>
@@ -197,7 +197,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AF%94%E9%AD%AF%E5%B0%BC</t>
   </si>
   <si>
-    <t>比魯尼</t>
+    <t>比鲁尼</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E4%B8%96%E7%BA%AA</t>
@@ -209,7 +209,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E6%96%AF%E8%98%AD%E9%BB%83%E9%87%91%E6%99%82%E4%BB%A3</t>
   </si>
   <si>
-    <t>伊斯蘭黃金時代</t>
+    <t>伊斯兰黄金时代</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8C%BB%E5%AD%A6</t>
@@ -233,7 +233,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E6%96%AF%E8%98%AD%E7%A5%9E%E5%AD%B8</t>
   </si>
   <si>
-    <t>伊斯蘭神學</t>
+    <t>伊斯兰神学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%89%A9%E7%90%86%E5%AD%A6</t>
@@ -269,13 +269,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8A%B3%E9%A6%99%E7%99%82%E6%B3%95</t>
   </si>
   <si>
-    <t>芳香療法</t>
+    <t>芳香疗法</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%89%E8%96%A9%E9%87%8C</t>
   </si>
   <si>
-    <t>安薩里</t>
+    <t>安萨里</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AC%A7%E7%8E%9B%E5%B0%94%C2%B7%E6%B5%B7%E4%BA%9A%E5%A7%86</t>
@@ -287,7 +287,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E6%9C%AC%C2%B7%E9%AD%AF%E4%B8%96%E5%BE%B7</t>
   </si>
   <si>
-    <t>伊本·魯世德</t>
+    <t>伊本·鲁世德</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BB%8F%E9%99%A2%E5%93%B2%E5%AD%A6</t>
@@ -299,7 +299,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%89%BE%E7%88%BE%E4%BC%AF%E5%9C%96%E6%96%AF%C2%B7%E9%BA%A5%E6%A0%BC%E5%8A%AA%E6%96%AF</t>
   </si>
   <si>
-    <t>艾爾伯圖斯·麥格努斯</t>
+    <t>艾尔伯图斯·麦格努斯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%82%93%E6%96%AF%C2%B7%E5%8F%B8%E5%90%84%E8%84%B1</t>
@@ -335,7 +335,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%82%81%E8%92%99%E5%B0%BC%E5%BE%B7</t>
   </si>
   <si>
-    <t>邁蒙尼德</t>
+    <t>迈蒙尼德</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E6%8B%89%E4%BC%AF%E6%96%87</t>
@@ -383,7 +383,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%86%AB%E5%AD%B8%E5%AE%B6</t>
   </si>
   <si>
-    <t>醫學家</t>
+    <t>医学家</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E7%84%B6%E7%A7%91%E5%AD%A6%E5%AE%B6</t>
@@ -413,7 +413,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%A7%E7%A7%91</t>
   </si>
   <si>
-    <t>內科</t>
+    <t>内科</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%81%E4%B8%83%E4%B8%96%E7%BA%AA</t>
@@ -437,7 +437,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E9%87%8C%E5%A3%AB%E5%A4%9A%E5%BE%B7%E5%AD%B8%E6%B4%BE</t>
   </si>
   <si>
-    <t>亞里士多德學派</t>
+    <t>亚里士多德学派</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%8C%E5%85%83%E8%AE%BA</t>
@@ -539,15 +539,12 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8D%A0%E6%98%9F%E5%AD%B8</t>
   </si>
   <si>
-    <t>占星學</t>
+    <t>占星学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%AF%E8%98%AD%E7%B6%93</t>
   </si>
   <si>
-    <t>可蘭經</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B5%B7%E4%BB%80%E6%9C%A8</t>
   </si>
   <si>
@@ -557,7 +554,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%81%86%E6%98%9F</t>
   </si>
   <si>
-    <t>恆星</t>
+    <t>恒星</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A1%8C%E6%98%9F</t>
@@ -575,7 +572,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%AA%E9%99%BD%E9%BB%91%E5%AD%90</t>
   </si>
   <si>
-    <t>太陽黑子</t>
+    <t>太阳黑子</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%B0%E5%BF%83%E8%AF%B4</t>
@@ -587,7 +584,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%92%B8%E9%A4%BE</t>
   </si>
   <si>
-    <t>蒸餾</t>
+    <t>蒸馏</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%82%BC%E9%87%91%E6%9C%AF</t>
@@ -599,7 +596,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B3%A2%E8%80%85%E4%B9%8B%E7%9F%B3</t>
   </si>
   <si>
-    <t>賢者之石</t>
+    <t>贤者之石</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%9A%E9%9F%A6%E7%9A%84%E6%A8%8A%E5%B0%9A</t>
@@ -611,7 +608,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%8F%A4%E6%99%82%E6%9C%9F</t>
   </si>
   <si>
-    <t>中古時期</t>
+    <t>中古时期</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B4%BE%E6%AF%94%E5%B0%94</t>
@@ -665,7 +662,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A9%86%E6%96%AF%E6%9E%97%E5%AD%B8%E8%80%85%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>穆斯林學者列表</t>
+    <t>穆斯林学者列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%BD%E6%8B%89%E5%90%89%E7%89%B9</t>
@@ -677,13 +674,10 @@
     <t>https://zh.wikipedia.org/wiki/%E5%93%B2%E5%AD%B8</t>
   </si>
   <si>
-    <t>哲學</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9D%B1%E6%96%B9%E5%93%B2%E5%AD%B8</t>
   </si>
   <si>
-    <t>東方哲學</t>
+    <t>东方哲学</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Iranian_philosophy</t>
@@ -701,7 +695,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E4%B8%96%E7%B4%80%E4%BC%8A%E6%96%AF%E8%98%AD%E4%B8%96%E7%95%8C%E7%9A%84%E7%A7%91%E5%AD%B8</t>
   </si>
   <si>
-    <t>中世紀伊斯蘭世界的科學</t>
+    <t>中世纪伊斯兰世界的科学</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/List_of_Muslim_scientists</t>
@@ -743,31 +737,31 @@
     <t>https://zh.wikipedia.org/wiki/Template_talk:%E7%A7%91%E5%AD%B8%E5%93%B2%E5%AD%B8</t>
   </si>
   <si>
-    <t>Template talk-科學哲學</t>
+    <t>Template talk-科学哲学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E5%AD%B8%E5%93%B2%E5%AD%B8</t>
   </si>
   <si>
-    <t>科學哲學</t>
+    <t>科学哲学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%93%B2%E5%AD%B8%E5%88%86%E6%9E%90</t>
   </si>
   <si>
-    <t>哲學分析</t>
+    <t>哲学分析</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%88%86%E6%9E%90-%E7%B6%9C%E5%90%88%E5%8D%80%E5%88%A5</t>
   </si>
   <si>
-    <t>分析-綜合區別</t>
+    <t>分析-综合区别</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%88%E9%A9%97</t>
   </si>
   <si>
-    <t>先驗</t>
+    <t>先验</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9B%A0%E6%9E%9C%E5%85%B3%E7%B3%BB</t>
@@ -803,7 +797,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%8B%E5%AF%A6</t>
   </si>
   <si>
-    <t>事實</t>
+    <t>事实</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%AF%E8%AF%81%E4%BC%AA%E6%80%A7</t>
@@ -815,7 +809,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%88%91%E5%80%91%E7%8F%BE%E5%9C%A8%E4%B8%8D%E7%9F%A5%E9%81%93%EF%BC%8C%E5%B0%87%E4%BE%86%E4%B9%9F%E4%B8%8D%E7%9F%A5%E9%81%93</t>
   </si>
   <si>
-    <t>我們現在不知道，將來也不知道</t>
+    <t>我们现在不知道，将来也不知道</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BD%92%E7%BA%B3%E6%8E%A8%E7%90%86</t>
@@ -851,7 +845,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AE%A2%E8%A7%80%E6%80%A7</t>
   </si>
   <si>
-    <t>客觀性</t>
+    <t>客观性</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A7%82%E5%AF%9F</t>
@@ -899,13 +893,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8F%AF%E6%B8%AC%E8%A9%A6%E6%80%A7</t>
   </si>
   <si>
-    <t>可測試性</t>
+    <t>可测试性</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%81%B8%E6%93%87%E7%90%86%E8%AB%96</t>
   </si>
   <si>
-    <t>選擇理論</t>
+    <t>选择理论</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Confirmation_holism</t>
@@ -917,7 +911,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%9C%9F%E7%90%86%E8%9E%8D%E8%B2%AB%E8%AB%96</t>
   </si>
   <si>
-    <t>真理融貫論</t>
+    <t>真理融贯论</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Contextualism</t>
@@ -953,13 +947,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B1%BA%E5%AE%9A%E8%AB%96</t>
   </si>
   <si>
-    <t>決定論</t>
+    <t>决定论</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%AF%E8%AC%AC%E8%AB%96</t>
   </si>
   <si>
-    <t>可謬論</t>
+    <t>可谬论</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Foundationalism</t>
@@ -983,7 +977,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B7%A5%E5%85%B7%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>工具主義</t>
+    <t>工具主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%9E%E7%94%A8%E4%B8%BB%E4%B9%89</t>
@@ -1019,7 +1013,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E5%AD%B8%E5%AF%A6%E5%9C%A8%E8%AB%96</t>
   </si>
   <si>
-    <t>科學實在論</t>
+    <t>科学实在论</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Anti-realism</t>
@@ -1049,19 +1043,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9D%87%E8%AE%8A%E8%AB%96</t>
   </si>
   <si>
-    <t>均變論</t>
+    <t>均变论</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B4%BB%E5%8A%9B%E8%AB%96</t>
   </si>
   <si>
-    <t>活力論</t>
+    <t>活力论</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%9F%A5%E8%AD%98%E5%AD%B8</t>
   </si>
   <si>
-    <t>知識學</t>
+    <t>知识学</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/History_and_philosophy_of_science</t>
@@ -1097,7 +1091,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%94%9F%E7%89%A9%E5%AD%B8%E5%93%B2%E5%AD%B8</t>
   </si>
   <si>
-    <t>生物學哲學</t>
+    <t>生物学哲学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%BC%94%E5%8C%96%E6%80%9D%E6%83%B3%E5%8F%B2</t>
@@ -1109,7 +1103,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%92%B0%E5%A2%83%E5%93%B2%E5%AD%B8</t>
   </si>
   <si>
-    <t>環境哲學</t>
+    <t>环境哲学</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Philosophy_of_space_and_time</t>
@@ -1145,7 +1139,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E5%B7%A5%E6%99%BA%E8%83%BD%E5%93%B2%E5%AD%B8</t>
   </si>
   <si>
-    <t>人工智能哲學</t>
+    <t>人工智能哲学</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Philosophy_of_computer_science</t>
@@ -1217,7 +1211,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%96%AF%E5%A4%9A%E4%BA%9E%E5%AD%B8%E6%B4%BE</t>
   </si>
   <si>
-    <t>斯多亞學派</t>
+    <t>斯多亚学派</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%A3%E7%BB%B4%E5%85%8B%E5%A4%9A%E7%9A%84%E4%BC%91</t>
@@ -1301,7 +1295,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A8%81%E5%BB%89%C2%B7%E7%B6%AD%E8%B5%AB%E7%B6%AD%E7%88%BE</t>
   </si>
   <si>
-    <t>威廉·維赫維爾</t>
+    <t>威廉·维赫维尔</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A5%A5%E5%8F%A4%E6%96%AF%E7%89%B9%C2%B7%E5%AD%94%E5%BE%B7</t>
@@ -1355,7 +1349,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%AD%AF%E9%81%93%E5%A4%AB%C2%B7%E6%96%AF%E5%9D%A6%E7%B4%8D</t>
   </si>
   <si>
-    <t>魯道夫·斯坦納</t>
+    <t>鲁道夫·斯坦纳</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%A1%E5%B0%94%C2%B7%E7%9A%AE%E5%B0%94%E9%80%8A</t>
@@ -1397,13 +1391,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%88%86%E6%9E%90%E5%93%B2%E5%AD%B8</t>
   </si>
   <si>
-    <t>分析哲學</t>
+    <t>分析哲学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E7%88%BE%E5%BC%97%E9%9B%B7%E5%BE%B7%C2%B7%E8%AB%BE%E6%80%9D%C2%B7%E6%87%B7%E7%89%B9%E9%BB%91%E5%BE%B7</t>
   </si>
   <si>
-    <t>阿爾弗雷德·諾思·懷特黑德</t>
+    <t>阿尔弗雷德·诺思·怀特黑德</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BC%AF%E7%89%B9%E5%85%B0%C2%B7%E7%BD%97%E7%B4%A0</t>
@@ -1427,7 +1421,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A5%A7%E5%9C%96%C2%B7%E7%B4%90%E6%8B%89%E7%89%B9</t>
   </si>
   <si>
-    <t>奧圖·紐拉特</t>
+    <t>奥图·纽拉特</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%B2%81%E9%81%93%E5%A4%AB%C2%B7%E5%8D%A1%E5%B0%94%E7%BA%B3%E6%99%AE</t>
@@ -1451,13 +1445,13 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%B9%E5%B0%BC%E7%88%BE%C2%B7%E4%B8%B9%E5%B0%BC%E7%89%B9</t>
   </si>
   <si>
-    <t>丹尼爾·丹尼特</t>
+    <t>丹尼尔·丹尼特</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E4%B8%96%E7%B4%80%E5%93%B2%E5%AD%B8</t>
   </si>
   <si>
-    <t>中世紀哲學</t>
+    <t>中世纪哲学</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Al-Jahiz</t>
@@ -1583,13 +1577,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BA%AB%E7%89%B9%E4%BC%AF%C2%B7%E8%BF%AA%C2%B7%E6%81%AF%E6%8B%89%E8%BE%9B</t>
   </si>
   <si>
-    <t>庫特伯·迪·息拉辛</t>
+    <t>库特伯·迪·息拉辛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E6%9C%AC%C2%B7%E6%B3%B0%E7%B1%B3%E8%91%89</t>
   </si>
   <si>
-    <t>伊本·泰米葉</t>
+    <t>伊本·泰米叶</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E6%9C%AC%C2%B7%E8%B5%AB%E5%8B%92%E6%95%A6</t>
@@ -1601,15 +1595,12 @@
     <t>https://zh.wikipedia.org/wiki/%E7%8C%B6%E5%A4%AA%E6%95%99%E5%93%B2%E5%AD%B8</t>
   </si>
   <si>
-    <t>猶太教哲學</t>
+    <t>犹太教哲学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%BF%88%E8%92%99%E5%B0%BC%E5%BE%B7</t>
   </si>
   <si>
-    <t>迈蒙尼德</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8B%89%E6%96%BD%E5%BE%B7%E4%B8%81</t>
   </si>
   <si>
@@ -1625,7 +1616,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B4%8D%E5%93%88%E7%91%AA%E5%B0%BC%E5%BE%B7</t>
   </si>
   <si>
-    <t>納哈瑪尼德</t>
+    <t>纳哈玛尼德</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9F%BA%E7%9D%A3%E6%95%99%E5%93%B2%E5%AD%A6</t>
@@ -1637,7 +1628,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%95%99%E7%88%B6_(%E5%9F%BA%E7%9D%A3%E6%95%99%E6%AD%B7%E5%8F%B2)</t>
   </si>
   <si>
-    <t>教父 (基督教歷史)</t>
+    <t>教父 (基督教历史)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B8%8C%E6%B3%A2%E7%9A%84%E5%A5%A5%E5%8F%A4%E6%96%AF%E4%B8%81</t>
@@ -1661,7 +1652,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B4%84%E7%BF%B0%E5%85%A7%E6%96%AF%C2%B7%E5%8F%B8%E5%90%84%E7%89%B9%C2%B7%E6%84%9B%E7%95%99%E6%A0%B9%E7%B4%8D</t>
   </si>
   <si>
-    <t>約翰內斯·司各特·愛留根納</t>
+    <t>约翰内斯·司各特·爱留根纳</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E5%B0%94%E7%90%B4</t>
@@ -1673,9 +1664,6 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B6%93%E9%99%A2%E5%93%B2%E5%AD%B8</t>
   </si>
   <si>
-    <t>經院哲學</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9D%8E%E7%89%B9%E4%BC%AF%E9%9B%B7%E7%9A%84%E5%AE%89%E7%91%9F%E8%8E%AB</t>
   </si>
   <si>
@@ -1697,7 +1685,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E7%B6%AD%E5%85%8B%E6%89%98%E7%9A%84%E4%BC%91%E6%A0%BC</t>
   </si>
   <si>
-    <t>聖維克托的休格</t>
+    <t>圣维克托的休格</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Richard_of_St._Victor</t>
@@ -1709,7 +1697,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E5%A1%9E%E6%9E%97</t>
   </si>
   <si>
-    <t>羅塞林</t>
+    <t>罗塞林</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BC%A6%E5%B7%B4%E7%AC%AC%E4%BA%BA%E5%BD%BC%E5%BE%97</t>
@@ -1751,7 +1739,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E6%96%87%E5%BE%B7</t>
   </si>
   <si>
-    <t>聖文德</t>
+    <t>圣文德</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Boetius_of_Dacia</t>
@@ -1817,7 +1805,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B0%BC%E5%85%8B%E7%88%BE%C2%B7%E5%A5%A7%E9%87%8C%E6%96%AF%E5%A7%86</t>
   </si>
   <si>
-    <t>尼克爾·奧里斯姆</t>
+    <t>尼克尔·奥里斯姆</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Albert_of_Saxony_(philosopher)</t>
@@ -1871,7 +1859,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BC%97%E6%9C%97%E8%A5%BF%E6%96%AF%E7%A7%91%C2%B7%E7%B6%AD%E5%A4%9A%E5%88%A9%E4%BA%9E</t>
   </si>
   <si>
-    <t>弗朗西斯科·維多利亞</t>
+    <t>弗朗西斯科·维多利亚</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Renaissance_philosophy</t>
@@ -1979,7 +1967,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E6%9C%AC%C2%B7%E8%98%87%E7%88%BE</t>
   </si>
   <si>
-    <t>伊本·蘇爾</t>
+    <t>伊本·苏尔</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%87%AF%E5%B0%94%E8%8B%8F%E6%96%AF</t>
@@ -2009,7 +1997,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B3%B0%E5%A5%A7%E5%BC%97%E6%8B%89%E6%96%AF%E6%89%98%E6%96%AF</t>
   </si>
   <si>
-    <t>泰奧弗拉斯托斯</t>
+    <t>泰奥弗拉斯托斯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BC%A0%E4%BB%B2%E6%99%AF</t>
@@ -2057,25 +2045,25 @@
     <t>https://zh.wikipedia.org/wiki/%E5%97%8E%E5%95%A1</t>
   </si>
   <si>
-    <t>嗎啡</t>
+    <t>吗啡</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B0%B4%E6%A5%8A%E9%85%B8</t>
   </si>
   <si>
-    <t>水楊酸</t>
+    <t>水杨酸</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9D%B1%E8%8E%A8%E8%8F%AA%E9%B9%BC</t>
   </si>
   <si>
-    <t>東莨菪鹼</t>
+    <t>东莨菪碱</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
   </si>
   <si>
-    <t>權威控制</t>
+    <t>权威控制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%99%9A%E6%8B%9F%E5%9B%BD%E9%99%85%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
@@ -2093,7 +2081,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E6%A8%99%E6%BA%96%E5%90%8D%E7%A8%B1%E8%AD%98%E5%88%A5%E7%A2%BC</t>
   </si>
   <si>
-    <t>國際標準名稱識別碼</t>
+    <t>国际标准名称识别码</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%B4%E5%90%88%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
@@ -2111,7 +2099,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E5%AD%B8%E6%96%87%E6%AA%94%E7%B3%BB%E7%B5%B1</t>
   </si>
   <si>
-    <t>大學文檔系統</t>
+    <t>大学文档系统</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%9B%BD%E5%9B%BD%E5%AE%B6%E5%9B%BE%E4%B9%A6%E9%A6%86</t>
@@ -2123,13 +2111,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%BE%B3%E6%B4%B2%E5%9C%8B%E5%AE%B6%E5%9C%96%E6%9B%B8%E9%A4%A8</t>
   </si>
   <si>
-    <t>澳洲國家圖書館</t>
+    <t>澳洲国家图书馆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E7%AB%8B%E5%9C%8B%E6%9C%83%E5%9C%96%E6%9B%B8%E9%A4%A8</t>
   </si>
   <si>
-    <t>國立國會圖書館</t>
+    <t>国立国会图书馆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8D%B7%E5%85%8B%E5%9B%BD%E5%AE%B6%E5%9B%BE%E4%B9%A6%E9%A6%86</t>
@@ -5079,7 +5067,7 @@
         <v>175</v>
       </c>
       <c r="F89" t="s">
-        <v>176</v>
+        <v>32</v>
       </c>
       <c r="G89" t="n">
         <v>1</v>
@@ -5105,10 +5093,10 @@
         <v>89</v>
       </c>
       <c r="E90" t="s">
+        <v>176</v>
+      </c>
+      <c r="F90" t="s">
         <v>177</v>
-      </c>
-      <c r="F90" t="s">
-        <v>178</v>
       </c>
       <c r="G90" t="n">
         <v>2</v>
@@ -5134,10 +5122,10 @@
         <v>90</v>
       </c>
       <c r="E91" t="s">
+        <v>178</v>
+      </c>
+      <c r="F91" t="s">
         <v>179</v>
-      </c>
-      <c r="F91" t="s">
-        <v>180</v>
       </c>
       <c r="G91" t="n">
         <v>2</v>
@@ -5163,10 +5151,10 @@
         <v>91</v>
       </c>
       <c r="E92" t="s">
+        <v>180</v>
+      </c>
+      <c r="F92" t="s">
         <v>181</v>
-      </c>
-      <c r="F92" t="s">
-        <v>182</v>
       </c>
       <c r="G92" t="n">
         <v>1</v>
@@ -5192,10 +5180,10 @@
         <v>92</v>
       </c>
       <c r="E93" t="s">
+        <v>182</v>
+      </c>
+      <c r="F93" t="s">
         <v>183</v>
-      </c>
-      <c r="F93" t="s">
-        <v>184</v>
       </c>
       <c r="G93" t="n">
         <v>4</v>
@@ -5221,10 +5209,10 @@
         <v>93</v>
       </c>
       <c r="E94" t="s">
+        <v>184</v>
+      </c>
+      <c r="F94" t="s">
         <v>185</v>
-      </c>
-      <c r="F94" t="s">
-        <v>186</v>
       </c>
       <c r="G94" t="n">
         <v>1</v>
@@ -5250,10 +5238,10 @@
         <v>94</v>
       </c>
       <c r="E95" t="s">
+        <v>186</v>
+      </c>
+      <c r="F95" t="s">
         <v>187</v>
-      </c>
-      <c r="F95" t="s">
-        <v>188</v>
       </c>
       <c r="G95" t="n">
         <v>1</v>
@@ -5279,10 +5267,10 @@
         <v>95</v>
       </c>
       <c r="E96" t="s">
+        <v>188</v>
+      </c>
+      <c r="F96" t="s">
         <v>189</v>
-      </c>
-      <c r="F96" t="s">
-        <v>190</v>
       </c>
       <c r="G96" t="n">
         <v>1</v>
@@ -5337,10 +5325,10 @@
         <v>97</v>
       </c>
       <c r="E98" t="s">
+        <v>190</v>
+      </c>
+      <c r="F98" t="s">
         <v>191</v>
-      </c>
-      <c r="F98" t="s">
-        <v>192</v>
       </c>
       <c r="G98" t="n">
         <v>5</v>
@@ -5366,10 +5354,10 @@
         <v>98</v>
       </c>
       <c r="E99" t="s">
+        <v>192</v>
+      </c>
+      <c r="F99" t="s">
         <v>193</v>
-      </c>
-      <c r="F99" t="s">
-        <v>194</v>
       </c>
       <c r="G99" t="n">
         <v>1</v>
@@ -5395,10 +5383,10 @@
         <v>99</v>
       </c>
       <c r="E100" t="s">
+        <v>194</v>
+      </c>
+      <c r="F100" t="s">
         <v>195</v>
-      </c>
-      <c r="F100" t="s">
-        <v>196</v>
       </c>
       <c r="G100" t="n">
         <v>1</v>
@@ -5424,10 +5412,10 @@
         <v>100</v>
       </c>
       <c r="E101" t="s">
+        <v>196</v>
+      </c>
+      <c r="F101" t="s">
         <v>197</v>
-      </c>
-      <c r="F101" t="s">
-        <v>198</v>
       </c>
       <c r="G101" t="n">
         <v>1</v>
@@ -5453,10 +5441,10 @@
         <v>101</v>
       </c>
       <c r="E102" t="s">
+        <v>198</v>
+      </c>
+      <c r="F102" t="s">
         <v>199</v>
-      </c>
-      <c r="F102" t="s">
-        <v>200</v>
       </c>
       <c r="G102" t="n">
         <v>1</v>
@@ -5511,10 +5499,10 @@
         <v>103</v>
       </c>
       <c r="E104" t="s">
+        <v>200</v>
+      </c>
+      <c r="F104" t="s">
         <v>201</v>
-      </c>
-      <c r="F104" t="s">
-        <v>202</v>
       </c>
       <c r="G104" t="n">
         <v>1</v>
@@ -5540,10 +5528,10 @@
         <v>104</v>
       </c>
       <c r="E105" t="s">
+        <v>202</v>
+      </c>
+      <c r="F105" t="s">
         <v>203</v>
-      </c>
-      <c r="F105" t="s">
-        <v>204</v>
       </c>
       <c r="G105" t="n">
         <v>2</v>
@@ -5569,10 +5557,10 @@
         <v>105</v>
       </c>
       <c r="E106" t="s">
+        <v>204</v>
+      </c>
+      <c r="F106" t="s">
         <v>205</v>
-      </c>
-      <c r="F106" t="s">
-        <v>206</v>
       </c>
       <c r="G106" t="n">
         <v>2</v>
@@ -5598,10 +5586,10 @@
         <v>106</v>
       </c>
       <c r="E107" t="s">
+        <v>206</v>
+      </c>
+      <c r="F107" t="s">
         <v>207</v>
-      </c>
-      <c r="F107" t="s">
-        <v>208</v>
       </c>
       <c r="G107" t="n">
         <v>1</v>
@@ -5627,10 +5615,10 @@
         <v>107</v>
       </c>
       <c r="E108" t="s">
+        <v>208</v>
+      </c>
+      <c r="F108" t="s">
         <v>209</v>
-      </c>
-      <c r="F108" t="s">
-        <v>210</v>
       </c>
       <c r="G108" t="n">
         <v>1</v>
@@ -5656,10 +5644,10 @@
         <v>108</v>
       </c>
       <c r="E109" t="s">
+        <v>210</v>
+      </c>
+      <c r="F109" t="s">
         <v>211</v>
-      </c>
-      <c r="F109" t="s">
-        <v>212</v>
       </c>
       <c r="G109" t="n">
         <v>1</v>
@@ -5685,10 +5673,10 @@
         <v>109</v>
       </c>
       <c r="E110" t="s">
+        <v>212</v>
+      </c>
+      <c r="F110" t="s">
         <v>213</v>
-      </c>
-      <c r="F110" t="s">
-        <v>214</v>
       </c>
       <c r="G110" t="n">
         <v>1</v>
@@ -5714,10 +5702,10 @@
         <v>110</v>
       </c>
       <c r="E111" t="s">
+        <v>214</v>
+      </c>
+      <c r="F111" t="s">
         <v>215</v>
-      </c>
-      <c r="F111" t="s">
-        <v>216</v>
       </c>
       <c r="G111" t="n">
         <v>1</v>
@@ -5743,10 +5731,10 @@
         <v>111</v>
       </c>
       <c r="E112" t="s">
+        <v>216</v>
+      </c>
+      <c r="F112" t="s">
         <v>217</v>
-      </c>
-      <c r="F112" t="s">
-        <v>218</v>
       </c>
       <c r="G112" t="n">
         <v>1</v>
@@ -5772,10 +5760,10 @@
         <v>112</v>
       </c>
       <c r="E113" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="F113" t="s">
-        <v>220</v>
+        <v>68</v>
       </c>
       <c r="G113" t="n">
         <v>30</v>
@@ -5801,10 +5789,10 @@
         <v>113</v>
       </c>
       <c r="E114" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="F114" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="G114" t="n">
         <v>1</v>
@@ -5830,10 +5818,10 @@
         <v>114</v>
       </c>
       <c r="E115" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="F115" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="G115" t="n">
         <v>1</v>
@@ -5859,10 +5847,10 @@
         <v>115</v>
       </c>
       <c r="E116" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="F116" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="G116" t="n">
         <v>1</v>
@@ -5888,10 +5876,10 @@
         <v>116</v>
       </c>
       <c r="E117" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="F117" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="G117" t="n">
         <v>1</v>
@@ -5917,10 +5905,10 @@
         <v>117</v>
       </c>
       <c r="E118" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="F118" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="G118" t="n">
         <v>1</v>
@@ -5946,10 +5934,10 @@
         <v>118</v>
       </c>
       <c r="E119" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="F119" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="G119" t="n">
         <v>1</v>
@@ -5975,10 +5963,10 @@
         <v>119</v>
       </c>
       <c r="E120" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="F120" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="G120" t="n">
         <v>1</v>
@@ -6004,10 +5992,10 @@
         <v>120</v>
       </c>
       <c r="E121" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="F121" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="G121" t="n">
         <v>1</v>
@@ -6033,10 +6021,10 @@
         <v>121</v>
       </c>
       <c r="E122" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="F122" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="G122" t="n">
         <v>1</v>
@@ -6062,10 +6050,10 @@
         <v>122</v>
       </c>
       <c r="E123" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="F123" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="G123" t="n">
         <v>2</v>
@@ -6091,10 +6079,10 @@
         <v>123</v>
       </c>
       <c r="E124" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="F124" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="G124" t="n">
         <v>17</v>
@@ -6120,10 +6108,10 @@
         <v>124</v>
       </c>
       <c r="E125" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="F125" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="G125" t="n">
         <v>8</v>
@@ -6149,10 +6137,10 @@
         <v>125</v>
       </c>
       <c r="E126" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="F126" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="G126" t="n">
         <v>3</v>
@@ -6178,10 +6166,10 @@
         <v>126</v>
       </c>
       <c r="E127" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="F127" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="G127" t="n">
         <v>1</v>
@@ -6207,10 +6195,10 @@
         <v>127</v>
       </c>
       <c r="E128" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="F128" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="G128" t="n">
         <v>1</v>
@@ -6236,10 +6224,10 @@
         <v>128</v>
       </c>
       <c r="E129" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="F129" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="G129" t="n">
         <v>1</v>
@@ -6265,10 +6253,10 @@
         <v>129</v>
       </c>
       <c r="E130" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="F130" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="G130" t="n">
         <v>1</v>
@@ -6294,10 +6282,10 @@
         <v>130</v>
       </c>
       <c r="E131" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="F131" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="G131" t="n">
         <v>1</v>
@@ -6323,10 +6311,10 @@
         <v>131</v>
       </c>
       <c r="E132" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="F132" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="G132" t="n">
         <v>1</v>
@@ -6352,10 +6340,10 @@
         <v>132</v>
       </c>
       <c r="E133" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="F133" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="G133" t="n">
         <v>1</v>
@@ -6381,10 +6369,10 @@
         <v>133</v>
       </c>
       <c r="E134" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="F134" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="G134" t="n">
         <v>1</v>
@@ -6410,10 +6398,10 @@
         <v>134</v>
       </c>
       <c r="E135" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="F135" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="G135" t="n">
         <v>1</v>
@@ -6439,10 +6427,10 @@
         <v>135</v>
       </c>
       <c r="E136" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="F136" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="G136" t="n">
         <v>1</v>
@@ -6468,10 +6456,10 @@
         <v>136</v>
       </c>
       <c r="E137" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="F137" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="G137" t="n">
         <v>1</v>
@@ -6497,10 +6485,10 @@
         <v>137</v>
       </c>
       <c r="E138" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="F138" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="G138" t="n">
         <v>1</v>
@@ -6526,10 +6514,10 @@
         <v>138</v>
       </c>
       <c r="E139" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="F139" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="G139" t="n">
         <v>1</v>
@@ -6555,10 +6543,10 @@
         <v>139</v>
       </c>
       <c r="E140" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="F140" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="G140" t="n">
         <v>2</v>
@@ -6584,10 +6572,10 @@
         <v>140</v>
       </c>
       <c r="E141" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="F141" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="G141" t="n">
         <v>1</v>
@@ -6613,10 +6601,10 @@
         <v>141</v>
       </c>
       <c r="E142" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="F142" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="G142" t="n">
         <v>1</v>
@@ -6642,10 +6630,10 @@
         <v>142</v>
       </c>
       <c r="E143" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="F143" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="G143" t="n">
         <v>1</v>
@@ -6671,10 +6659,10 @@
         <v>143</v>
       </c>
       <c r="E144" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="F144" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="G144" t="n">
         <v>1</v>
@@ -6700,10 +6688,10 @@
         <v>144</v>
       </c>
       <c r="E145" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="F145" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="G145" t="n">
         <v>1</v>
@@ -6729,10 +6717,10 @@
         <v>145</v>
       </c>
       <c r="E146" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="F146" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="G146" t="n">
         <v>1</v>
@@ -6758,10 +6746,10 @@
         <v>146</v>
       </c>
       <c r="E147" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="F147" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="G147" t="n">
         <v>1</v>
@@ -6787,10 +6775,10 @@
         <v>147</v>
       </c>
       <c r="E148" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="F148" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="G148" t="n">
         <v>1</v>
@@ -6816,10 +6804,10 @@
         <v>148</v>
       </c>
       <c r="E149" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="F149" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="G149" t="n">
         <v>2</v>
@@ -6845,10 +6833,10 @@
         <v>149</v>
       </c>
       <c r="E150" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="F150" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="G150" t="n">
         <v>1</v>
@@ -6874,10 +6862,10 @@
         <v>150</v>
       </c>
       <c r="E151" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="F151" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="G151" t="n">
         <v>1</v>
@@ -6903,10 +6891,10 @@
         <v>151</v>
       </c>
       <c r="E152" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="F152" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="G152" t="n">
         <v>1</v>
@@ -6932,10 +6920,10 @@
         <v>152</v>
       </c>
       <c r="E153" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="F153" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="G153" t="n">
         <v>1</v>
@@ -6961,10 +6949,10 @@
         <v>153</v>
       </c>
       <c r="E154" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="F154" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="G154" t="n">
         <v>1</v>
@@ -6990,10 +6978,10 @@
         <v>154</v>
       </c>
       <c r="E155" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="F155" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="G155" t="n">
         <v>1</v>
@@ -7019,10 +7007,10 @@
         <v>155</v>
       </c>
       <c r="E156" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="F156" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="G156" t="n">
         <v>1</v>
@@ -7048,10 +7036,10 @@
         <v>156</v>
       </c>
       <c r="E157" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="F157" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="G157" t="n">
         <v>1</v>
@@ -7077,10 +7065,10 @@
         <v>157</v>
       </c>
       <c r="E158" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="F158" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="G158" t="n">
         <v>1</v>
@@ -7106,10 +7094,10 @@
         <v>158</v>
       </c>
       <c r="E159" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="F159" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="G159" t="n">
         <v>1</v>
@@ -7135,10 +7123,10 @@
         <v>159</v>
       </c>
       <c r="E160" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="F160" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="G160" t="n">
         <v>1</v>
@@ -7164,10 +7152,10 @@
         <v>160</v>
       </c>
       <c r="E161" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="F161" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="G161" t="n">
         <v>1</v>
@@ -7193,10 +7181,10 @@
         <v>161</v>
       </c>
       <c r="E162" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="F162" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="G162" t="n">
         <v>1</v>
@@ -7222,10 +7210,10 @@
         <v>162</v>
       </c>
       <c r="E163" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="F163" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="G163" t="n">
         <v>1</v>
@@ -7251,10 +7239,10 @@
         <v>163</v>
       </c>
       <c r="E164" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="F164" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="G164" t="n">
         <v>1</v>
@@ -7280,10 +7268,10 @@
         <v>164</v>
       </c>
       <c r="E165" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="F165" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="G165" t="n">
         <v>1</v>
@@ -7309,10 +7297,10 @@
         <v>165</v>
       </c>
       <c r="E166" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="F166" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="G166" t="n">
         <v>1</v>
@@ -7338,10 +7326,10 @@
         <v>166</v>
       </c>
       <c r="E167" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="F167" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="G167" t="n">
         <v>1</v>
@@ -7367,10 +7355,10 @@
         <v>167</v>
       </c>
       <c r="E168" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="F168" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="G168" t="n">
         <v>1</v>
@@ -7396,10 +7384,10 @@
         <v>168</v>
       </c>
       <c r="E169" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="F169" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="G169" t="n">
         <v>1</v>
@@ -7425,10 +7413,10 @@
         <v>169</v>
       </c>
       <c r="E170" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="F170" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="G170" t="n">
         <v>1</v>
@@ -7454,10 +7442,10 @@
         <v>170</v>
       </c>
       <c r="E171" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="F171" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="G171" t="n">
         <v>1</v>
@@ -7483,10 +7471,10 @@
         <v>171</v>
       </c>
       <c r="E172" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="F172" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="G172" t="n">
         <v>1</v>
@@ -7512,10 +7500,10 @@
         <v>172</v>
       </c>
       <c r="E173" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="F173" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="G173" t="n">
         <v>1</v>
@@ -7541,10 +7529,10 @@
         <v>173</v>
       </c>
       <c r="E174" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="F174" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="G174" t="n">
         <v>1</v>
@@ -7570,10 +7558,10 @@
         <v>174</v>
       </c>
       <c r="E175" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="F175" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="G175" t="n">
         <v>1</v>
@@ -7599,10 +7587,10 @@
         <v>175</v>
       </c>
       <c r="E176" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="F176" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="G176" t="n">
         <v>1</v>
@@ -7628,10 +7616,10 @@
         <v>176</v>
       </c>
       <c r="E177" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="F177" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="G177" t="n">
         <v>1</v>
@@ -7657,10 +7645,10 @@
         <v>177</v>
       </c>
       <c r="E178" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="F178" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="G178" t="n">
         <v>1</v>
@@ -7686,10 +7674,10 @@
         <v>178</v>
       </c>
       <c r="E179" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="F179" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="G179" t="n">
         <v>1</v>
@@ -7715,10 +7703,10 @@
         <v>179</v>
       </c>
       <c r="E180" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="F180" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="G180" t="n">
         <v>1</v>
@@ -7744,10 +7732,10 @@
         <v>180</v>
       </c>
       <c r="E181" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="F181" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="G181" t="n">
         <v>1</v>
@@ -7773,10 +7761,10 @@
         <v>181</v>
       </c>
       <c r="E182" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="F182" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="G182" t="n">
         <v>1</v>
@@ -7802,10 +7790,10 @@
         <v>182</v>
       </c>
       <c r="E183" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="F183" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="G183" t="n">
         <v>1</v>
@@ -7831,10 +7819,10 @@
         <v>183</v>
       </c>
       <c r="E184" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="F184" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="G184" t="n">
         <v>1</v>
@@ -7860,10 +7848,10 @@
         <v>184</v>
       </c>
       <c r="E185" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="F185" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="G185" t="n">
         <v>1</v>
@@ -7889,10 +7877,10 @@
         <v>185</v>
       </c>
       <c r="E186" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="F186" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="G186" t="n">
         <v>1</v>
@@ -7918,10 +7906,10 @@
         <v>186</v>
       </c>
       <c r="E187" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="F187" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="G187" t="n">
         <v>1</v>
@@ -7947,10 +7935,10 @@
         <v>187</v>
       </c>
       <c r="E188" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="F188" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="G188" t="n">
         <v>2</v>
@@ -7976,10 +7964,10 @@
         <v>188</v>
       </c>
       <c r="E189" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="F189" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="G189" t="n">
         <v>1</v>
@@ -8005,10 +7993,10 @@
         <v>189</v>
       </c>
       <c r="E190" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="F190" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="G190" t="n">
         <v>1</v>
@@ -8034,10 +8022,10 @@
         <v>190</v>
       </c>
       <c r="E191" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="F191" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="G191" t="n">
         <v>1</v>
@@ -8063,10 +8051,10 @@
         <v>191</v>
       </c>
       <c r="E192" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="F192" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="G192" t="n">
         <v>1</v>
@@ -8092,10 +8080,10 @@
         <v>192</v>
       </c>
       <c r="E193" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="F193" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="G193" t="n">
         <v>1</v>
@@ -8121,10 +8109,10 @@
         <v>193</v>
       </c>
       <c r="E194" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="F194" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="G194" t="n">
         <v>1</v>
@@ -8150,10 +8138,10 @@
         <v>194</v>
       </c>
       <c r="E195" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="F195" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="G195" t="n">
         <v>1</v>
@@ -8179,10 +8167,10 @@
         <v>195</v>
       </c>
       <c r="E196" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="F196" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="G196" t="n">
         <v>1</v>
@@ -8208,10 +8196,10 @@
         <v>196</v>
       </c>
       <c r="E197" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="F197" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="G197" t="n">
         <v>1</v>
@@ -8237,10 +8225,10 @@
         <v>197</v>
       </c>
       <c r="E198" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="F198" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="G198" t="n">
         <v>1</v>
@@ -8266,10 +8254,10 @@
         <v>198</v>
       </c>
       <c r="E199" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="F199" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="G199" t="n">
         <v>1</v>
@@ -8295,10 +8283,10 @@
         <v>199</v>
       </c>
       <c r="E200" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="F200" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="G200" t="n">
         <v>1</v>
@@ -8324,10 +8312,10 @@
         <v>200</v>
       </c>
       <c r="E201" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="F201" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="G201" t="n">
         <v>3</v>
@@ -8353,10 +8341,10 @@
         <v>201</v>
       </c>
       <c r="E202" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="F202" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="G202" t="n">
         <v>1</v>
@@ -8382,10 +8370,10 @@
         <v>202</v>
       </c>
       <c r="E203" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="F203" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="G203" t="n">
         <v>1</v>
@@ -8411,10 +8399,10 @@
         <v>203</v>
       </c>
       <c r="E204" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="F204" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="G204" t="n">
         <v>1</v>
@@ -8440,10 +8428,10 @@
         <v>204</v>
       </c>
       <c r="E205" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="F205" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="G205" t="n">
         <v>2</v>
@@ -8469,10 +8457,10 @@
         <v>205</v>
       </c>
       <c r="E206" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="F206" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="G206" t="n">
         <v>2</v>
@@ -8498,10 +8486,10 @@
         <v>206</v>
       </c>
       <c r="E207" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="F207" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="G207" t="n">
         <v>1</v>
@@ -8527,10 +8515,10 @@
         <v>207</v>
       </c>
       <c r="E208" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="F208" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="G208" t="n">
         <v>2</v>
@@ -8556,10 +8544,10 @@
         <v>208</v>
       </c>
       <c r="E209" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="F209" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="G209" t="n">
         <v>1</v>
@@ -8585,10 +8573,10 @@
         <v>209</v>
       </c>
       <c r="E210" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="F210" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="G210" t="n">
         <v>1</v>
@@ -8614,10 +8602,10 @@
         <v>210</v>
       </c>
       <c r="E211" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="F211" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="G211" t="n">
         <v>1</v>
@@ -8643,10 +8631,10 @@
         <v>211</v>
       </c>
       <c r="E212" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="F212" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="G212" t="n">
         <v>1</v>
@@ -8672,10 +8660,10 @@
         <v>212</v>
       </c>
       <c r="E213" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="F213" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="G213" t="n">
         <v>1</v>
@@ -8701,10 +8689,10 @@
         <v>213</v>
       </c>
       <c r="E214" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="F214" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="G214" t="n">
         <v>1</v>
@@ -8730,10 +8718,10 @@
         <v>214</v>
       </c>
       <c r="E215" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="F215" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="G215" t="n">
         <v>1</v>
@@ -8759,10 +8747,10 @@
         <v>215</v>
       </c>
       <c r="E216" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="F216" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="G216" t="n">
         <v>1</v>
@@ -8788,10 +8776,10 @@
         <v>216</v>
       </c>
       <c r="E217" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="F217" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="G217" t="n">
         <v>1</v>
@@ -8817,10 +8805,10 @@
         <v>217</v>
       </c>
       <c r="E218" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="F218" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="G218" t="n">
         <v>1</v>
@@ -8846,10 +8834,10 @@
         <v>218</v>
       </c>
       <c r="E219" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="F219" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="G219" t="n">
         <v>1</v>
@@ -8875,10 +8863,10 @@
         <v>219</v>
       </c>
       <c r="E220" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="F220" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="G220" t="n">
         <v>1</v>
@@ -8904,10 +8892,10 @@
         <v>220</v>
       </c>
       <c r="E221" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="F221" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="G221" t="n">
         <v>1</v>
@@ -8933,10 +8921,10 @@
         <v>221</v>
       </c>
       <c r="E222" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="F222" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="G222" t="n">
         <v>1</v>
@@ -8962,10 +8950,10 @@
         <v>222</v>
       </c>
       <c r="E223" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="F223" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="G223" t="n">
         <v>1</v>
@@ -8991,10 +8979,10 @@
         <v>223</v>
       </c>
       <c r="E224" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="F224" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="G224" t="n">
         <v>1</v>
@@ -9020,10 +9008,10 @@
         <v>224</v>
       </c>
       <c r="E225" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="F225" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="G225" t="n">
         <v>1</v>
@@ -9049,10 +9037,10 @@
         <v>225</v>
       </c>
       <c r="E226" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="F226" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="G226" t="n">
         <v>1</v>
@@ -9078,10 +9066,10 @@
         <v>226</v>
       </c>
       <c r="E227" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="F227" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="G227" t="n">
         <v>1</v>
@@ -9107,10 +9095,10 @@
         <v>227</v>
       </c>
       <c r="E228" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="F228" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="G228" t="n">
         <v>1</v>
@@ -9136,10 +9124,10 @@
         <v>228</v>
       </c>
       <c r="E229" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="F229" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="G229" t="n">
         <v>1</v>
@@ -9165,10 +9153,10 @@
         <v>229</v>
       </c>
       <c r="E230" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="F230" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="G230" t="n">
         <v>1</v>
@@ -9194,10 +9182,10 @@
         <v>230</v>
       </c>
       <c r="E231" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="F231" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="G231" t="n">
         <v>1</v>
@@ -9223,10 +9211,10 @@
         <v>231</v>
       </c>
       <c r="E232" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="F232" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="G232" t="n">
         <v>1</v>
@@ -9252,10 +9240,10 @@
         <v>232</v>
       </c>
       <c r="E233" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="F233" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="G233" t="n">
         <v>1</v>
@@ -9281,10 +9269,10 @@
         <v>233</v>
       </c>
       <c r="E234" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="F234" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="G234" t="n">
         <v>1</v>
@@ -9310,10 +9298,10 @@
         <v>234</v>
       </c>
       <c r="E235" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="F235" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="G235" t="n">
         <v>1</v>
@@ -9339,10 +9327,10 @@
         <v>235</v>
       </c>
       <c r="E236" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="F236" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="G236" t="n">
         <v>1</v>
@@ -9368,10 +9356,10 @@
         <v>236</v>
       </c>
       <c r="E237" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="F237" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="G237" t="n">
         <v>1</v>
@@ -9397,10 +9385,10 @@
         <v>237</v>
       </c>
       <c r="E238" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="F238" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="G238" t="n">
         <v>1</v>
@@ -9426,10 +9414,10 @@
         <v>238</v>
       </c>
       <c r="E239" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="F239" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="G239" t="n">
         <v>1</v>
@@ -9455,10 +9443,10 @@
         <v>239</v>
       </c>
       <c r="E240" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="F240" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="G240" t="n">
         <v>1</v>
@@ -9484,10 +9472,10 @@
         <v>240</v>
       </c>
       <c r="E241" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="F241" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="G241" t="n">
         <v>1</v>
@@ -9513,10 +9501,10 @@
         <v>241</v>
       </c>
       <c r="E242" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="F242" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="G242" t="n">
         <v>1</v>
@@ -9542,10 +9530,10 @@
         <v>242</v>
       </c>
       <c r="E243" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="F243" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="G243" t="n">
         <v>3</v>
@@ -9600,10 +9588,10 @@
         <v>244</v>
       </c>
       <c r="E245" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="F245" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="G245" t="n">
         <v>1</v>
@@ -9629,10 +9617,10 @@
         <v>245</v>
       </c>
       <c r="E246" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="F246" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="G246" t="n">
         <v>1</v>
@@ -9658,10 +9646,10 @@
         <v>246</v>
       </c>
       <c r="E247" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="F247" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="G247" t="n">
         <v>1</v>
@@ -9687,10 +9675,10 @@
         <v>247</v>
       </c>
       <c r="E248" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="F248" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="G248" t="n">
         <v>1</v>
@@ -9716,10 +9704,10 @@
         <v>248</v>
       </c>
       <c r="E249" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="F249" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="G249" t="n">
         <v>1</v>
@@ -9745,10 +9733,10 @@
         <v>249</v>
       </c>
       <c r="E250" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="F250" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="G250" t="n">
         <v>1</v>
@@ -9774,10 +9762,10 @@
         <v>250</v>
       </c>
       <c r="E251" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="F251" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="G251" t="n">
         <v>1</v>
@@ -9832,10 +9820,10 @@
         <v>252</v>
       </c>
       <c r="E253" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="F253" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="G253" t="n">
         <v>1</v>
@@ -9861,10 +9849,10 @@
         <v>253</v>
       </c>
       <c r="E254" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="F254" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="G254" t="n">
         <v>1</v>
@@ -9890,10 +9878,10 @@
         <v>254</v>
       </c>
       <c r="E255" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="F255" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="G255" t="n">
         <v>1</v>
@@ -9919,10 +9907,10 @@
         <v>255</v>
       </c>
       <c r="E256" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="F256" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="G256" t="n">
         <v>1</v>
@@ -9948,10 +9936,10 @@
         <v>256</v>
       </c>
       <c r="E257" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="F257" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="G257" t="n">
         <v>1</v>
@@ -9977,10 +9965,10 @@
         <v>257</v>
       </c>
       <c r="E258" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="F258" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="G258" t="n">
         <v>2</v>
@@ -10006,10 +9994,10 @@
         <v>258</v>
       </c>
       <c r="E259" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="F259" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="G259" t="n">
         <v>1</v>
@@ -10035,10 +10023,10 @@
         <v>259</v>
       </c>
       <c r="E260" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="F260" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="G260" t="n">
         <v>1</v>
@@ -10064,10 +10052,10 @@
         <v>260</v>
       </c>
       <c r="E261" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="F261" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="G261" t="n">
         <v>1</v>
@@ -10093,10 +10081,10 @@
         <v>261</v>
       </c>
       <c r="E262" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="F262" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="G262" t="n">
         <v>1</v>
@@ -10122,10 +10110,10 @@
         <v>262</v>
       </c>
       <c r="E263" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="F263" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="G263" t="n">
         <v>1</v>
@@ -10151,10 +10139,10 @@
         <v>263</v>
       </c>
       <c r="E264" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="F264" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="G264" t="n">
         <v>1</v>
@@ -10180,10 +10168,10 @@
         <v>264</v>
       </c>
       <c r="E265" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="F265" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="G265" t="n">
         <v>2</v>
@@ -10209,10 +10197,10 @@
         <v>265</v>
       </c>
       <c r="E266" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="F266" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="G266" t="n">
         <v>1</v>
@@ -10238,10 +10226,10 @@
         <v>266</v>
       </c>
       <c r="E267" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="F267" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="G267" t="n">
         <v>1</v>
@@ -10267,10 +10255,10 @@
         <v>267</v>
       </c>
       <c r="E268" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="F268" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="G268" t="n">
         <v>1</v>
@@ -10296,10 +10284,10 @@
         <v>268</v>
       </c>
       <c r="E269" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="F269" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="G269" t="n">
         <v>1</v>
@@ -10325,10 +10313,10 @@
         <v>269</v>
       </c>
       <c r="E270" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="F270" t="s">
-        <v>530</v>
+        <v>106</v>
       </c>
       <c r="G270" t="n">
         <v>1</v>
@@ -10354,10 +10342,10 @@
         <v>270</v>
       </c>
       <c r="E271" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="F271" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="G271" t="n">
         <v>1</v>
@@ -10383,10 +10371,10 @@
         <v>271</v>
       </c>
       <c r="E272" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="F272" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="G272" t="n">
         <v>1</v>
@@ -10412,10 +10400,10 @@
         <v>272</v>
       </c>
       <c r="E273" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="F273" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="G273" t="n">
         <v>1</v>
@@ -10441,10 +10429,10 @@
         <v>273</v>
       </c>
       <c r="E274" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="F274" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="G274" t="n">
         <v>1</v>
@@ -10470,10 +10458,10 @@
         <v>274</v>
       </c>
       <c r="E275" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="F275" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="G275" t="n">
         <v>1</v>
@@ -10499,10 +10487,10 @@
         <v>275</v>
       </c>
       <c r="E276" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="F276" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="G276" t="n">
         <v>1</v>
@@ -10528,10 +10516,10 @@
         <v>276</v>
       </c>
       <c r="E277" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="F277" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="G277" t="n">
         <v>1</v>
@@ -10557,10 +10545,10 @@
         <v>277</v>
       </c>
       <c r="E278" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="F278" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="G278" t="n">
         <v>1</v>
@@ -10586,10 +10574,10 @@
         <v>278</v>
       </c>
       <c r="E279" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="F279" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="G279" t="n">
         <v>1</v>
@@ -10615,10 +10603,10 @@
         <v>279</v>
       </c>
       <c r="E280" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="F280" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="G280" t="n">
         <v>1</v>
@@ -10644,10 +10632,10 @@
         <v>280</v>
       </c>
       <c r="E281" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="F281" t="s">
-        <v>552</v>
+        <v>92</v>
       </c>
       <c r="G281" t="n">
         <v>1</v>
@@ -10673,10 +10661,10 @@
         <v>281</v>
       </c>
       <c r="E282" t="s">
-        <v>553</v>
+        <v>549</v>
       </c>
       <c r="F282" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
       <c r="G282" t="n">
         <v>1</v>
@@ -10702,10 +10690,10 @@
         <v>282</v>
       </c>
       <c r="E283" t="s">
-        <v>555</v>
+        <v>551</v>
       </c>
       <c r="F283" t="s">
-        <v>556</v>
+        <v>552</v>
       </c>
       <c r="G283" t="n">
         <v>1</v>
@@ -10731,10 +10719,10 @@
         <v>283</v>
       </c>
       <c r="E284" t="s">
-        <v>557</v>
+        <v>553</v>
       </c>
       <c r="F284" t="s">
-        <v>558</v>
+        <v>554</v>
       </c>
       <c r="G284" t="n">
         <v>1</v>
@@ -10760,10 +10748,10 @@
         <v>284</v>
       </c>
       <c r="E285" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
       <c r="F285" t="s">
-        <v>560</v>
+        <v>556</v>
       </c>
       <c r="G285" t="n">
         <v>1</v>
@@ -10789,10 +10777,10 @@
         <v>285</v>
       </c>
       <c r="E286" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="F286" t="s">
-        <v>562</v>
+        <v>558</v>
       </c>
       <c r="G286" t="n">
         <v>1</v>
@@ -10818,10 +10806,10 @@
         <v>286</v>
       </c>
       <c r="E287" t="s">
-        <v>563</v>
+        <v>559</v>
       </c>
       <c r="F287" t="s">
-        <v>564</v>
+        <v>560</v>
       </c>
       <c r="G287" t="n">
         <v>1</v>
@@ -10847,10 +10835,10 @@
         <v>287</v>
       </c>
       <c r="E288" t="s">
-        <v>565</v>
+        <v>561</v>
       </c>
       <c r="F288" t="s">
-        <v>566</v>
+        <v>562</v>
       </c>
       <c r="G288" t="n">
         <v>1</v>
@@ -10876,10 +10864,10 @@
         <v>288</v>
       </c>
       <c r="E289" t="s">
-        <v>567</v>
+        <v>563</v>
       </c>
       <c r="F289" t="s">
-        <v>568</v>
+        <v>564</v>
       </c>
       <c r="G289" t="n">
         <v>1</v>
@@ -10905,10 +10893,10 @@
         <v>289</v>
       </c>
       <c r="E290" t="s">
-        <v>569</v>
+        <v>565</v>
       </c>
       <c r="F290" t="s">
-        <v>570</v>
+        <v>566</v>
       </c>
       <c r="G290" t="n">
         <v>1</v>
@@ -10934,10 +10922,10 @@
         <v>290</v>
       </c>
       <c r="E291" t="s">
-        <v>571</v>
+        <v>567</v>
       </c>
       <c r="F291" t="s">
-        <v>572</v>
+        <v>568</v>
       </c>
       <c r="G291" t="n">
         <v>1</v>
@@ -10963,10 +10951,10 @@
         <v>291</v>
       </c>
       <c r="E292" t="s">
-        <v>573</v>
+        <v>569</v>
       </c>
       <c r="F292" t="s">
-        <v>574</v>
+        <v>570</v>
       </c>
       <c r="G292" t="n">
         <v>1</v>
@@ -10992,10 +10980,10 @@
         <v>292</v>
       </c>
       <c r="E293" t="s">
-        <v>575</v>
+        <v>571</v>
       </c>
       <c r="F293" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
       <c r="G293" t="n">
         <v>1</v>
@@ -11021,10 +11009,10 @@
         <v>293</v>
       </c>
       <c r="E294" t="s">
-        <v>577</v>
+        <v>573</v>
       </c>
       <c r="F294" t="s">
-        <v>578</v>
+        <v>574</v>
       </c>
       <c r="G294" t="n">
         <v>2</v>
@@ -11050,10 +11038,10 @@
         <v>294</v>
       </c>
       <c r="E295" t="s">
-        <v>579</v>
+        <v>575</v>
       </c>
       <c r="F295" t="s">
-        <v>580</v>
+        <v>576</v>
       </c>
       <c r="G295" t="n">
         <v>1</v>
@@ -11079,10 +11067,10 @@
         <v>295</v>
       </c>
       <c r="E296" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="F296" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
       <c r="G296" t="n">
         <v>1</v>
@@ -11108,10 +11096,10 @@
         <v>296</v>
       </c>
       <c r="E297" t="s">
-        <v>583</v>
+        <v>579</v>
       </c>
       <c r="F297" t="s">
-        <v>584</v>
+        <v>580</v>
       </c>
       <c r="G297" t="n">
         <v>1</v>
@@ -11137,10 +11125,10 @@
         <v>297</v>
       </c>
       <c r="E298" t="s">
-        <v>585</v>
+        <v>581</v>
       </c>
       <c r="F298" t="s">
-        <v>586</v>
+        <v>582</v>
       </c>
       <c r="G298" t="n">
         <v>1</v>
@@ -11166,10 +11154,10 @@
         <v>298</v>
       </c>
       <c r="E299" t="s">
-        <v>587</v>
+        <v>583</v>
       </c>
       <c r="F299" t="s">
-        <v>588</v>
+        <v>584</v>
       </c>
       <c r="G299" t="n">
         <v>1</v>
@@ -11195,10 +11183,10 @@
         <v>299</v>
       </c>
       <c r="E300" t="s">
-        <v>589</v>
+        <v>585</v>
       </c>
       <c r="F300" t="s">
-        <v>590</v>
+        <v>586</v>
       </c>
       <c r="G300" t="n">
         <v>1</v>
@@ -11224,10 +11212,10 @@
         <v>300</v>
       </c>
       <c r="E301" t="s">
-        <v>591</v>
+        <v>587</v>
       </c>
       <c r="F301" t="s">
-        <v>592</v>
+        <v>588</v>
       </c>
       <c r="G301" t="n">
         <v>1</v>
@@ -11253,10 +11241,10 @@
         <v>301</v>
       </c>
       <c r="E302" t="s">
-        <v>593</v>
+        <v>589</v>
       </c>
       <c r="F302" t="s">
-        <v>594</v>
+        <v>590</v>
       </c>
       <c r="G302" t="n">
         <v>1</v>
@@ -11282,10 +11270,10 @@
         <v>302</v>
       </c>
       <c r="E303" t="s">
-        <v>595</v>
+        <v>591</v>
       </c>
       <c r="F303" t="s">
-        <v>596</v>
+        <v>592</v>
       </c>
       <c r="G303" t="n">
         <v>1</v>
@@ -11340,10 +11328,10 @@
         <v>304</v>
       </c>
       <c r="E305" t="s">
-        <v>597</v>
+        <v>593</v>
       </c>
       <c r="F305" t="s">
-        <v>598</v>
+        <v>594</v>
       </c>
       <c r="G305" t="n">
         <v>1</v>
@@ -11369,10 +11357,10 @@
         <v>305</v>
       </c>
       <c r="E306" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
       <c r="F306" t="s">
-        <v>600</v>
+        <v>596</v>
       </c>
       <c r="G306" t="n">
         <v>1</v>
@@ -11398,10 +11386,10 @@
         <v>306</v>
       </c>
       <c r="E307" t="s">
-        <v>601</v>
+        <v>597</v>
       </c>
       <c r="F307" t="s">
-        <v>602</v>
+        <v>598</v>
       </c>
       <c r="G307" t="n">
         <v>1</v>
@@ -11427,10 +11415,10 @@
         <v>307</v>
       </c>
       <c r="E308" t="s">
-        <v>603</v>
+        <v>599</v>
       </c>
       <c r="F308" t="s">
-        <v>604</v>
+        <v>600</v>
       </c>
       <c r="G308" t="n">
         <v>1</v>
@@ -11456,10 +11444,10 @@
         <v>308</v>
       </c>
       <c r="E309" t="s">
-        <v>605</v>
+        <v>601</v>
       </c>
       <c r="F309" t="s">
-        <v>606</v>
+        <v>602</v>
       </c>
       <c r="G309" t="n">
         <v>1</v>
@@ -11485,10 +11473,10 @@
         <v>309</v>
       </c>
       <c r="E310" t="s">
-        <v>607</v>
+        <v>603</v>
       </c>
       <c r="F310" t="s">
-        <v>608</v>
+        <v>604</v>
       </c>
       <c r="G310" t="n">
         <v>1</v>
@@ -11514,10 +11502,10 @@
         <v>310</v>
       </c>
       <c r="E311" t="s">
-        <v>609</v>
+        <v>605</v>
       </c>
       <c r="F311" t="s">
-        <v>610</v>
+        <v>606</v>
       </c>
       <c r="G311" t="n">
         <v>1</v>
@@ -11543,10 +11531,10 @@
         <v>311</v>
       </c>
       <c r="E312" t="s">
-        <v>611</v>
+        <v>607</v>
       </c>
       <c r="F312" t="s">
-        <v>612</v>
+        <v>608</v>
       </c>
       <c r="G312" t="n">
         <v>1</v>
@@ -11572,10 +11560,10 @@
         <v>312</v>
       </c>
       <c r="E313" t="s">
-        <v>613</v>
+        <v>609</v>
       </c>
       <c r="F313" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="G313" t="n">
         <v>1</v>
@@ -11601,10 +11589,10 @@
         <v>313</v>
       </c>
       <c r="E314" t="s">
-        <v>615</v>
+        <v>611</v>
       </c>
       <c r="F314" t="s">
-        <v>616</v>
+        <v>612</v>
       </c>
       <c r="G314" t="n">
         <v>1</v>
@@ -11630,10 +11618,10 @@
         <v>314</v>
       </c>
       <c r="E315" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="F315" t="s">
-        <v>618</v>
+        <v>614</v>
       </c>
       <c r="G315" t="n">
         <v>1</v>
@@ -11659,10 +11647,10 @@
         <v>315</v>
       </c>
       <c r="E316" t="s">
-        <v>619</v>
+        <v>615</v>
       </c>
       <c r="F316" t="s">
-        <v>620</v>
+        <v>616</v>
       </c>
       <c r="G316" t="n">
         <v>1</v>
@@ -11688,10 +11676,10 @@
         <v>316</v>
       </c>
       <c r="E317" t="s">
-        <v>621</v>
+        <v>617</v>
       </c>
       <c r="F317" t="s">
-        <v>622</v>
+        <v>618</v>
       </c>
       <c r="G317" t="n">
         <v>1</v>
@@ -11717,10 +11705,10 @@
         <v>317</v>
       </c>
       <c r="E318" t="s">
-        <v>623</v>
+        <v>619</v>
       </c>
       <c r="F318" t="s">
-        <v>624</v>
+        <v>620</v>
       </c>
       <c r="G318" t="n">
         <v>2</v>
@@ -11746,10 +11734,10 @@
         <v>318</v>
       </c>
       <c r="E319" t="s">
-        <v>625</v>
+        <v>621</v>
       </c>
       <c r="F319" t="s">
-        <v>626</v>
+        <v>622</v>
       </c>
       <c r="G319" t="n">
         <v>1</v>
@@ -11775,10 +11763,10 @@
         <v>319</v>
       </c>
       <c r="E320" t="s">
-        <v>627</v>
+        <v>623</v>
       </c>
       <c r="F320" t="s">
-        <v>628</v>
+        <v>624</v>
       </c>
       <c r="G320" t="n">
         <v>2</v>
@@ -11804,10 +11792,10 @@
         <v>320</v>
       </c>
       <c r="E321" t="s">
-        <v>629</v>
+        <v>625</v>
       </c>
       <c r="F321" t="s">
-        <v>630</v>
+        <v>626</v>
       </c>
       <c r="G321" t="n">
         <v>1</v>
@@ -11833,10 +11821,10 @@
         <v>321</v>
       </c>
       <c r="E322" t="s">
-        <v>631</v>
+        <v>627</v>
       </c>
       <c r="F322" t="s">
-        <v>632</v>
+        <v>628</v>
       </c>
       <c r="G322" t="n">
         <v>2</v>
@@ -11862,10 +11850,10 @@
         <v>322</v>
       </c>
       <c r="E323" t="s">
-        <v>633</v>
+        <v>629</v>
       </c>
       <c r="F323" t="s">
-        <v>634</v>
+        <v>630</v>
       </c>
       <c r="G323" t="n">
         <v>1</v>
@@ -11891,10 +11879,10 @@
         <v>323</v>
       </c>
       <c r="E324" t="s">
-        <v>635</v>
+        <v>631</v>
       </c>
       <c r="F324" t="s">
-        <v>636</v>
+        <v>632</v>
       </c>
       <c r="G324" t="n">
         <v>1</v>
@@ -11920,10 +11908,10 @@
         <v>324</v>
       </c>
       <c r="E325" t="s">
-        <v>637</v>
+        <v>633</v>
       </c>
       <c r="F325" t="s">
-        <v>638</v>
+        <v>634</v>
       </c>
       <c r="G325" t="n">
         <v>1</v>
@@ -11949,10 +11937,10 @@
         <v>325</v>
       </c>
       <c r="E326" t="s">
-        <v>639</v>
+        <v>635</v>
       </c>
       <c r="F326" t="s">
-        <v>640</v>
+        <v>636</v>
       </c>
       <c r="G326" t="n">
         <v>1</v>
@@ -11978,10 +11966,10 @@
         <v>326</v>
       </c>
       <c r="E327" t="s">
-        <v>641</v>
+        <v>637</v>
       </c>
       <c r="F327" t="s">
-        <v>642</v>
+        <v>638</v>
       </c>
       <c r="G327" t="n">
         <v>2</v>
@@ -12007,10 +11995,10 @@
         <v>327</v>
       </c>
       <c r="E328" t="s">
-        <v>643</v>
+        <v>639</v>
       </c>
       <c r="F328" t="s">
-        <v>644</v>
+        <v>640</v>
       </c>
       <c r="G328" t="n">
         <v>1</v>
@@ -12036,10 +12024,10 @@
         <v>328</v>
       </c>
       <c r="E329" t="s">
-        <v>645</v>
+        <v>641</v>
       </c>
       <c r="F329" t="s">
-        <v>646</v>
+        <v>642</v>
       </c>
       <c r="G329" t="n">
         <v>1</v>
@@ -12065,10 +12053,10 @@
         <v>329</v>
       </c>
       <c r="E330" t="s">
-        <v>647</v>
+        <v>643</v>
       </c>
       <c r="F330" t="s">
-        <v>648</v>
+        <v>644</v>
       </c>
       <c r="G330" t="n">
         <v>1</v>
@@ -12094,10 +12082,10 @@
         <v>330</v>
       </c>
       <c r="E331" t="s">
-        <v>649</v>
+        <v>645</v>
       </c>
       <c r="F331" t="s">
-        <v>650</v>
+        <v>646</v>
       </c>
       <c r="G331" t="n">
         <v>1</v>
@@ -12123,10 +12111,10 @@
         <v>331</v>
       </c>
       <c r="E332" t="s">
-        <v>651</v>
+        <v>647</v>
       </c>
       <c r="F332" t="s">
-        <v>652</v>
+        <v>648</v>
       </c>
       <c r="G332" t="n">
         <v>2</v>
@@ -12152,10 +12140,10 @@
         <v>332</v>
       </c>
       <c r="E333" t="s">
-        <v>653</v>
+        <v>649</v>
       </c>
       <c r="F333" t="s">
-        <v>654</v>
+        <v>650</v>
       </c>
       <c r="G333" t="n">
         <v>1</v>
@@ -12181,10 +12169,10 @@
         <v>333</v>
       </c>
       <c r="E334" t="s">
-        <v>655</v>
+        <v>651</v>
       </c>
       <c r="F334" t="s">
-        <v>656</v>
+        <v>652</v>
       </c>
       <c r="G334" t="n">
         <v>1</v>
@@ -12210,10 +12198,10 @@
         <v>334</v>
       </c>
       <c r="E335" t="s">
-        <v>657</v>
+        <v>653</v>
       </c>
       <c r="F335" t="s">
-        <v>658</v>
+        <v>654</v>
       </c>
       <c r="G335" t="n">
         <v>1</v>
@@ -12239,10 +12227,10 @@
         <v>335</v>
       </c>
       <c r="E336" t="s">
-        <v>659</v>
+        <v>655</v>
       </c>
       <c r="F336" t="s">
-        <v>660</v>
+        <v>656</v>
       </c>
       <c r="G336" t="n">
         <v>1</v>
@@ -12268,10 +12256,10 @@
         <v>336</v>
       </c>
       <c r="E337" t="s">
-        <v>661</v>
+        <v>657</v>
       </c>
       <c r="F337" t="s">
-        <v>662</v>
+        <v>658</v>
       </c>
       <c r="G337" t="n">
         <v>1</v>
@@ -12297,10 +12285,10 @@
         <v>337</v>
       </c>
       <c r="E338" t="s">
-        <v>663</v>
+        <v>659</v>
       </c>
       <c r="F338" t="s">
-        <v>664</v>
+        <v>660</v>
       </c>
       <c r="G338" t="n">
         <v>1</v>
@@ -12326,10 +12314,10 @@
         <v>338</v>
       </c>
       <c r="E339" t="s">
-        <v>665</v>
+        <v>661</v>
       </c>
       <c r="F339" t="s">
-        <v>666</v>
+        <v>662</v>
       </c>
       <c r="G339" t="n">
         <v>1</v>
@@ -12355,10 +12343,10 @@
         <v>339</v>
       </c>
       <c r="E340" t="s">
-        <v>667</v>
+        <v>663</v>
       </c>
       <c r="F340" t="s">
-        <v>668</v>
+        <v>664</v>
       </c>
       <c r="G340" t="n">
         <v>1</v>
@@ -12384,10 +12372,10 @@
         <v>340</v>
       </c>
       <c r="E341" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="F341" t="s">
-        <v>670</v>
+        <v>666</v>
       </c>
       <c r="G341" t="n">
         <v>1</v>
@@ -12413,10 +12401,10 @@
         <v>341</v>
       </c>
       <c r="E342" t="s">
-        <v>671</v>
+        <v>667</v>
       </c>
       <c r="F342" t="s">
-        <v>672</v>
+        <v>668</v>
       </c>
       <c r="G342" t="n">
         <v>1</v>
@@ -12442,10 +12430,10 @@
         <v>342</v>
       </c>
       <c r="E343" t="s">
-        <v>673</v>
+        <v>669</v>
       </c>
       <c r="F343" t="s">
-        <v>674</v>
+        <v>670</v>
       </c>
       <c r="G343" t="n">
         <v>1</v>
@@ -12471,10 +12459,10 @@
         <v>343</v>
       </c>
       <c r="E344" t="s">
-        <v>675</v>
+        <v>671</v>
       </c>
       <c r="F344" t="s">
-        <v>676</v>
+        <v>672</v>
       </c>
       <c r="G344" t="n">
         <v>1</v>
@@ -12500,10 +12488,10 @@
         <v>344</v>
       </c>
       <c r="E345" t="s">
-        <v>677</v>
+        <v>673</v>
       </c>
       <c r="F345" t="s">
-        <v>678</v>
+        <v>674</v>
       </c>
       <c r="G345" t="n">
         <v>1</v>
@@ -12529,10 +12517,10 @@
         <v>345</v>
       </c>
       <c r="E346" t="s">
-        <v>679</v>
+        <v>675</v>
       </c>
       <c r="F346" t="s">
-        <v>680</v>
+        <v>676</v>
       </c>
       <c r="G346" t="n">
         <v>1</v>
@@ -12558,10 +12546,10 @@
         <v>346</v>
       </c>
       <c r="E347" t="s">
-        <v>681</v>
+        <v>677</v>
       </c>
       <c r="F347" t="s">
-        <v>682</v>
+        <v>678</v>
       </c>
       <c r="G347" t="n">
         <v>1</v>
@@ -12587,10 +12575,10 @@
         <v>347</v>
       </c>
       <c r="E348" t="s">
-        <v>683</v>
+        <v>679</v>
       </c>
       <c r="F348" t="s">
-        <v>684</v>
+        <v>680</v>
       </c>
       <c r="G348" t="n">
         <v>1</v>
@@ -12616,10 +12604,10 @@
         <v>348</v>
       </c>
       <c r="E349" t="s">
-        <v>685</v>
+        <v>681</v>
       </c>
       <c r="F349" t="s">
-        <v>686</v>
+        <v>682</v>
       </c>
       <c r="G349" t="n">
         <v>3</v>
@@ -12645,10 +12633,10 @@
         <v>349</v>
       </c>
       <c r="E350" t="s">
-        <v>687</v>
+        <v>683</v>
       </c>
       <c r="F350" t="s">
-        <v>688</v>
+        <v>684</v>
       </c>
       <c r="G350" t="n">
         <v>1</v>
@@ -12674,10 +12662,10 @@
         <v>350</v>
       </c>
       <c r="E351" t="s">
-        <v>689</v>
+        <v>685</v>
       </c>
       <c r="F351" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="G351" t="n">
         <v>1</v>
@@ -12703,10 +12691,10 @@
         <v>351</v>
       </c>
       <c r="E352" t="s">
-        <v>691</v>
+        <v>687</v>
       </c>
       <c r="F352" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="G352" t="n">
         <v>1</v>
@@ -12732,10 +12720,10 @@
         <v>352</v>
       </c>
       <c r="E353" t="s">
-        <v>693</v>
+        <v>689</v>
       </c>
       <c r="F353" t="s">
-        <v>694</v>
+        <v>690</v>
       </c>
       <c r="G353" t="n">
         <v>1</v>
@@ -12761,10 +12749,10 @@
         <v>353</v>
       </c>
       <c r="E354" t="s">
-        <v>695</v>
+        <v>691</v>
       </c>
       <c r="F354" t="s">
-        <v>696</v>
+        <v>692</v>
       </c>
       <c r="G354" t="n">
         <v>1</v>
@@ -12790,10 +12778,10 @@
         <v>354</v>
       </c>
       <c r="E355" t="s">
-        <v>697</v>
+        <v>693</v>
       </c>
       <c r="F355" t="s">
-        <v>698</v>
+        <v>694</v>
       </c>
       <c r="G355" t="n">
         <v>1</v>
@@ -12819,10 +12807,10 @@
         <v>355</v>
       </c>
       <c r="E356" t="s">
-        <v>699</v>
+        <v>695</v>
       </c>
       <c r="F356" t="s">
-        <v>700</v>
+        <v>696</v>
       </c>
       <c r="G356" t="n">
         <v>1</v>
@@ -12848,10 +12836,10 @@
         <v>356</v>
       </c>
       <c r="E357" t="s">
-        <v>701</v>
+        <v>697</v>
       </c>
       <c r="F357" t="s">
-        <v>702</v>
+        <v>698</v>
       </c>
       <c r="G357" t="n">
         <v>1</v>
@@ -12877,10 +12865,10 @@
         <v>357</v>
       </c>
       <c r="E358" t="s">
-        <v>703</v>
+        <v>699</v>
       </c>
       <c r="F358" t="s">
-        <v>704</v>
+        <v>700</v>
       </c>
       <c r="G358" t="n">
         <v>1</v>
@@ -12906,10 +12894,10 @@
         <v>358</v>
       </c>
       <c r="E359" t="s">
-        <v>705</v>
+        <v>701</v>
       </c>
       <c r="F359" t="s">
-        <v>706</v>
+        <v>702</v>
       </c>
       <c r="G359" t="n">
         <v>1</v>
@@ -12935,10 +12923,10 @@
         <v>359</v>
       </c>
       <c r="E360" t="s">
-        <v>707</v>
+        <v>703</v>
       </c>
       <c r="F360" t="s">
-        <v>708</v>
+        <v>704</v>
       </c>
       <c r="G360" t="n">
         <v>2</v>
@@ -12964,10 +12952,10 @@
         <v>360</v>
       </c>
       <c r="E361" t="s">
-        <v>709</v>
+        <v>705</v>
       </c>
       <c r="F361" t="s">
-        <v>710</v>
+        <v>706</v>
       </c>
       <c r="G361" t="n">
         <v>1</v>
@@ -12993,10 +12981,10 @@
         <v>361</v>
       </c>
       <c r="E362" t="s">
-        <v>711</v>
+        <v>707</v>
       </c>
       <c r="F362" t="s">
-        <v>712</v>
+        <v>708</v>
       </c>
       <c r="G362" t="n">
         <v>14</v>
@@ -13022,10 +13010,10 @@
         <v>362</v>
       </c>
       <c r="E363" t="s">
-        <v>711</v>
+        <v>707</v>
       </c>
       <c r="F363" t="s">
-        <v>713</v>
+        <v>709</v>
       </c>
       <c r="G363" t="n">
         <v>1</v>
